--- a/backend/results/Munjal/Crank Case _Sand Fusion.xlsx
+++ b/backend/results/Munjal/Crank Case _Sand Fusion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="51">
   <si>
     <t>date</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Sand Fusion %</t>
   </si>
   <si>
-    <t>permeability_bins</t>
-  </si>
-  <si>
     <t>loi_bins</t>
   </si>
   <si>
@@ -49,7 +46,7 @@
     <t>moisture_bins</t>
   </si>
   <si>
-    <t>A</t>
+    <t>permeability_bins</t>
   </si>
   <si>
     <t>B</t>
@@ -58,28 +55,52 @@
     <t>C</t>
   </si>
   <si>
-    <t>[138.462, 141.538)</t>
+    <t>A</t>
   </si>
   <si>
-    <t>[135.385, 138.462)</t>
+    <t>[2.644, 2.65)</t>
   </si>
   <si>
-    <t>[129.231, 132.308)</t>
+    <t>[2.637, 2.644)</t>
   </si>
   <si>
     <t>[2.625, 2.631)</t>
   </si>
   <si>
+    <t>[2.618, 2.625)</t>
+  </si>
+  <si>
     <t>[2.631, 2.637)</t>
   </si>
   <si>
-    <t>[2.618, 2.625)</t>
-  </si>
-  <si>
-    <t>[2.644, 2.65)</t>
+    <t>[2.606, 2.612)</t>
   </si>
   <si>
     <t>[2.599, 2.606)</t>
+  </si>
+  <si>
+    <t>[2.612, 2.618)</t>
+  </si>
+  <si>
+    <t>[2.587, 2.593)</t>
+  </si>
+  <si>
+    <t>[2.593, 2.599)</t>
+  </si>
+  <si>
+    <t>[65.277, 65.529)</t>
+  </si>
+  <si>
+    <t>[64.523, 64.774)</t>
+  </si>
+  <si>
+    <t>[64.271, 64.523)</t>
+  </si>
+  <si>
+    <t>[64.02, 64.271)</t>
+  </si>
+  <si>
+    <t>[64.774, 65.026)</t>
   </si>
   <si>
     <t>[65.026, 65.277)</t>
@@ -88,22 +109,64 @@
     <t>[65.529, 65.78)</t>
   </si>
   <si>
-    <t>[64.271, 64.523)</t>
+    <t>[65.78, 66.032)</t>
   </si>
   <si>
-    <t>[64.774, 65.026)</t>
+    <t>[66.786, 67.041)</t>
+  </si>
+  <si>
+    <t>[2.595, 2.604)</t>
+  </si>
+  <si>
+    <t>[2.632, 2.641)</t>
   </si>
   <si>
     <t>[2.613, 2.622)</t>
   </si>
   <si>
-    <t>[2.604, 2.613)</t>
+    <t>[2.586, 2.595)</t>
+  </si>
+  <si>
+    <t>[2.622, 2.632)</t>
   </si>
   <si>
     <t>[2.577, 2.586)</t>
   </si>
   <si>
-    <t>[2.595, 2.604)</t>
+    <t>[2.604, 2.613)</t>
+  </si>
+  <si>
+    <t>[2.568, 2.577)</t>
+  </si>
+  <si>
+    <t>[2.549, 2.558)</t>
+  </si>
+  <si>
+    <t>[2.558, 2.568)</t>
+  </si>
+  <si>
+    <t>[135.385, 138.462)</t>
+  </si>
+  <si>
+    <t>[138.462, 141.538)</t>
+  </si>
+  <si>
+    <t>[132.308, 135.385)</t>
+  </si>
+  <si>
+    <t>[144.615, 147.692)</t>
+  </si>
+  <si>
+    <t>[141.538, 144.615)</t>
+  </si>
+  <si>
+    <t>[156.923, 160.04)</t>
+  </si>
+  <si>
+    <t>[147.692, 150.769)</t>
+  </si>
+  <si>
+    <t>[129.231, 132.308)</t>
   </si>
 </sst>
 </file>
@@ -465,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,22 +574,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45700</v>
+        <v>45659</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2">
-        <v>65.09</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="E2">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="F2">
-        <v>2.62</v>
+        <v>2.602</v>
       </c>
       <c r="G2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -535,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -549,22 +612,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45700</v>
+        <v>45659</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>65.61333333333333</v>
+        <v>65.31333333333333</v>
       </c>
       <c r="E3">
+        <v>2.64</v>
+      </c>
+      <c r="F3">
         <v>2.633333333333333</v>
       </c>
-      <c r="F3">
-        <v>2.616666666666667</v>
-      </c>
       <c r="G3">
-        <v>136.6666666666667</v>
+        <v>140</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -573,13 +636,13 @@
         <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -587,151 +650,5433 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>45700</v>
+        <v>45660</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4">
-        <v>65.2475</v>
+        <v>65.34</v>
       </c>
       <c r="E4">
-        <v>2.6225</v>
+        <v>2.625</v>
       </c>
       <c r="F4">
-        <v>2.6125</v>
+        <v>2.62</v>
       </c>
       <c r="G4">
-        <v>137.5</v>
+        <v>140</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>45734</v>
+        <v>45660</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5">
-        <v>65.62</v>
+        <v>65.38</v>
       </c>
       <c r="E5">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="F5">
-        <v>2.58</v>
+        <v>2.5875</v>
       </c>
       <c r="G5">
-        <v>140</v>
+        <v>137.5</v>
       </c>
       <c r="H5">
-        <v>0.0411522633744856</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45734</v>
+        <v>45660</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>64.49000000000001</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="E6">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="F6">
-        <v>2.604</v>
+        <v>2.63</v>
       </c>
       <c r="G6">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>45734</v>
+        <v>45661</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7">
-        <v>64.955</v>
+        <v>65.38</v>
       </c>
       <c r="E7">
-        <v>2.645</v>
+        <v>2.62</v>
       </c>
       <c r="F7">
+        <v>2.615</v>
+      </c>
+      <c r="G7">
+        <v>137.5</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45661</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>65.47</v>
+      </c>
+      <c r="E8">
+        <v>2.62</v>
+      </c>
+      <c r="F8">
+        <v>2.583333333333333</v>
+      </c>
+      <c r="G8">
+        <v>140</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45661</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>65.44499999999999</v>
+      </c>
+      <c r="E9">
+        <v>2.65</v>
+      </c>
+      <c r="F9">
+        <v>2.62</v>
+      </c>
+      <c r="G9">
+        <v>140</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45663</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>65.43333333333334</v>
+      </c>
+      <c r="E10">
+        <v>2.636666666666667</v>
+      </c>
+      <c r="F10">
+        <v>2.61</v>
+      </c>
+      <c r="G10">
+        <v>140</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45663</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="E11">
+        <v>2.61</v>
+      </c>
+      <c r="F11">
+        <v>2.616666666666667</v>
+      </c>
+      <c r="G11">
+        <v>140</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45663</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>64.57000000000001</v>
+      </c>
+      <c r="E12">
+        <v>2.646666666666667</v>
+      </c>
+      <c r="F12">
+        <v>2.583333333333333</v>
+      </c>
+      <c r="G12">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45664</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>65.435</v>
+      </c>
+      <c r="E13">
+        <v>2.635</v>
+      </c>
+      <c r="F13">
+        <v>2.6</v>
+      </c>
+      <c r="G13">
+        <v>135</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45664</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>65.5</v>
+      </c>
+      <c r="E14">
+        <v>2.63</v>
+      </c>
+      <c r="F14">
+        <v>2.59</v>
+      </c>
+      <c r="G14">
+        <v>140</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45664</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>64.47500000000001</v>
+      </c>
+      <c r="E15">
+        <v>2.6425</v>
+      </c>
+      <c r="F15">
+        <v>2.5875</v>
+      </c>
+      <c r="G15">
+        <v>137.5</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45665</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>65.45</v>
+      </c>
+      <c r="E16">
+        <v>2.65</v>
+      </c>
+      <c r="F16">
+        <v>2.62</v>
+      </c>
+      <c r="G16">
+        <v>140</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45665</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>64.18000000000001</v>
+      </c>
+      <c r="E17">
+        <v>2.6</v>
+      </c>
+      <c r="F17">
+        <v>2.606666666666667</v>
+      </c>
+      <c r="G17">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.02290950744558992</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45665</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>65.47</v>
+      </c>
+      <c r="E18">
+        <v>2.615</v>
+      </c>
+      <c r="F18">
+        <v>2.6</v>
+      </c>
+      <c r="G18">
+        <v>140</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45666</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>65.47</v>
+      </c>
+      <c r="E19">
+        <v>2.605</v>
+      </c>
+      <c r="F19">
+        <v>2.63</v>
+      </c>
+      <c r="G19">
+        <v>140</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45666</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>64.5575</v>
+      </c>
+      <c r="E20">
+        <v>2.605</v>
+      </c>
+      <c r="F20">
+        <v>2.6175</v>
+      </c>
+      <c r="G20">
+        <v>140</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45666</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>64.63666666666667</v>
+      </c>
+      <c r="E21">
+        <v>2.63</v>
+      </c>
+      <c r="F21">
+        <v>2.58</v>
+      </c>
+      <c r="G21">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.02699055330634278</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45667</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>65.47333333333334</v>
+      </c>
+      <c r="E22">
+        <v>2.643333333333333</v>
+      </c>
+      <c r="F22">
+        <v>2.626666666666667</v>
+      </c>
+      <c r="G22">
+        <v>146.6666666666667</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45667</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>64.91499999999999</v>
+      </c>
+      <c r="E23">
+        <v>2.6</v>
+      </c>
+      <c r="F23">
+        <v>2.64</v>
+      </c>
+      <c r="G23">
+        <v>140</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45667</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>64.36</v>
+      </c>
+      <c r="E24">
+        <v>2.62</v>
+      </c>
+      <c r="F24">
+        <v>2.5925</v>
+      </c>
+      <c r="G24">
+        <v>142.5</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45668</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>65.465</v>
+      </c>
+      <c r="E25">
+        <v>2.6325</v>
+      </c>
+      <c r="F25">
+        <v>2.63</v>
+      </c>
+      <c r="G25">
+        <v>142.5</v>
+      </c>
+      <c r="H25">
+        <v>0.01068376068376068</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45668</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>65.22</v>
+      </c>
+      <c r="E26">
+        <v>2.586666666666666</v>
+      </c>
+      <c r="F26">
+        <v>2.626666666666666</v>
+      </c>
+      <c r="G26">
+        <v>141.6666666666667</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45668</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="E27">
+        <v>2.6</v>
+      </c>
+      <c r="F27">
+        <v>2.62</v>
+      </c>
+      <c r="G27">
+        <v>160</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45670</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>64.81999999999999</v>
+      </c>
+      <c r="E28">
+        <v>2.635</v>
+      </c>
+      <c r="F28">
+        <v>2.575</v>
+      </c>
+      <c r="G28">
+        <v>145</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" t="s">
+        <v>40</v>
+      </c>
+      <c r="L28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45670</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>64.5325</v>
+      </c>
+      <c r="E29">
+        <v>2.6175</v>
+      </c>
+      <c r="F29">
+        <v>2.615</v>
+      </c>
+      <c r="G29">
+        <v>150</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45671</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>65.35499999999999</v>
+      </c>
+      <c r="E30">
+        <v>2.63</v>
+      </c>
+      <c r="F30">
+        <v>2.62</v>
+      </c>
+      <c r="G30">
+        <v>135</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45671</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>64.52500000000001</v>
+      </c>
+      <c r="E31">
+        <v>2.6275</v>
+      </c>
+      <c r="F31">
+        <v>2.5775</v>
+      </c>
+      <c r="G31">
+        <v>137.5</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45671</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>64.7625</v>
+      </c>
+      <c r="E32">
+        <v>2.6125</v>
+      </c>
+      <c r="F32">
+        <v>2.635</v>
+      </c>
+      <c r="G32">
+        <v>135</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45672</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>65.29333333333334</v>
+      </c>
+      <c r="E33">
+        <v>2.606666666666667</v>
+      </c>
+      <c r="F33">
+        <v>2.626666666666667</v>
+      </c>
+      <c r="G33">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>24</v>
+      </c>
+      <c r="K33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45672</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>64.44750000000001</v>
+      </c>
+      <c r="E34">
+        <v>2.6475</v>
+      </c>
+      <c r="F34">
+        <v>2.5825</v>
+      </c>
+      <c r="G34">
+        <v>140</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" t="s">
+        <v>26</v>
+      </c>
+      <c r="K34" t="s">
+        <v>38</v>
+      </c>
+      <c r="L34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45672</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>64.15000000000001</v>
+      </c>
+      <c r="E35">
+        <v>2.6</v>
+      </c>
+      <c r="F35">
+        <v>2.626666666666667</v>
+      </c>
+      <c r="G35">
+        <v>140</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45673</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>65.35499999999999</v>
+      </c>
+      <c r="E36">
+        <v>2.61</v>
+      </c>
+      <c r="F36">
+        <v>2.61</v>
+      </c>
+      <c r="G36">
+        <v>140</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45673</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>64.43600000000001</v>
+      </c>
+      <c r="E37">
+        <v>2.626</v>
+      </c>
+      <c r="F37">
+        <v>2.596</v>
+      </c>
+      <c r="G37">
+        <v>138</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>26</v>
+      </c>
+      <c r="K37" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45673</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>64.77500000000001</v>
+      </c>
+      <c r="E38">
+        <v>2.6</v>
+      </c>
+      <c r="F38">
+        <v>2.63</v>
+      </c>
+      <c r="G38">
+        <v>135</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45674</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>65.43333333333334</v>
+      </c>
+      <c r="E39">
+        <v>2.613333333333333</v>
+      </c>
+      <c r="F39">
+        <v>2.62</v>
+      </c>
+      <c r="G39">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" t="s">
+        <v>35</v>
+      </c>
+      <c r="L39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45674</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>65.495</v>
+      </c>
+      <c r="E40">
+        <v>2.6425</v>
+      </c>
+      <c r="F40">
+        <v>2.5875</v>
+      </c>
+      <c r="G40">
+        <v>135</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45674</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>65.465</v>
+      </c>
+      <c r="E41">
+        <v>2.635</v>
+      </c>
+      <c r="F41">
+        <v>2.63</v>
+      </c>
+      <c r="G41">
+        <v>130</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s">
+        <v>24</v>
+      </c>
+      <c r="K41" t="s">
+        <v>37</v>
+      </c>
+      <c r="L41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45675</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>65.494</v>
+      </c>
+      <c r="E42">
+        <v>2.628</v>
+      </c>
+      <c r="F42">
+        <v>2.624</v>
+      </c>
+      <c r="G42">
+        <v>132</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" t="s">
+        <v>37</v>
+      </c>
+      <c r="L42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45675</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43">
+        <v>64.25</v>
+      </c>
+      <c r="E43">
+        <v>2.64</v>
+      </c>
+      <c r="F43">
+        <v>2.583333333333333</v>
+      </c>
+      <c r="G43">
+        <v>133.3333333333333</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" t="s">
+        <v>38</v>
+      </c>
+      <c r="L43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45675</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>64.875</v>
+      </c>
+      <c r="E44">
+        <v>2.61</v>
+      </c>
+      <c r="F44">
         <v>2.595</v>
       </c>
-      <c r="G7">
-        <v>140</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="G44">
+        <v>130</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45677</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>65.625</v>
+      </c>
+      <c r="E45">
+        <v>2.625</v>
+      </c>
+      <c r="F45">
+        <v>2.64</v>
+      </c>
+      <c r="G45">
+        <v>130</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" t="s">
+        <v>34</v>
+      </c>
+      <c r="L45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45677</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <v>65.7</v>
+      </c>
+      <c r="E46">
+        <v>2.63</v>
+      </c>
+      <c r="F46">
+        <v>2.615</v>
+      </c>
+      <c r="G46">
+        <v>130</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" t="s">
+        <v>35</v>
+      </c>
+      <c r="L46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45677</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>65.67</v>
+      </c>
+      <c r="E47">
+        <v>2.65</v>
+      </c>
+      <c r="F47">
+        <v>2.6</v>
+      </c>
+      <c r="G47">
+        <v>130</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
         <v>14</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45678</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="E48">
+        <v>2.61</v>
+      </c>
+      <c r="F48">
+        <v>2.6</v>
+      </c>
+      <c r="G48">
+        <v>140</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45678</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49">
+        <v>64.05</v>
+      </c>
+      <c r="E49">
+        <v>2.62</v>
+      </c>
+      <c r="F49">
+        <v>2.593333333333333</v>
+      </c>
+      <c r="G49">
+        <v>133.3333333333333</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45678</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>65.86999999999999</v>
+      </c>
+      <c r="E50">
+        <v>2.646666666666667</v>
+      </c>
+      <c r="F50">
+        <v>2.586666666666666</v>
+      </c>
+      <c r="G50">
+        <v>140</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" t="s">
+        <v>31</v>
+      </c>
+      <c r="K50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45679</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>65.94499999999999</v>
+      </c>
+      <c r="E51">
+        <v>2.63</v>
+      </c>
+      <c r="F51">
+        <v>2.63</v>
+      </c>
+      <c r="G51">
+        <v>135</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" t="s">
+        <v>37</v>
+      </c>
+      <c r="L51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45679</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>65.9725</v>
+      </c>
+      <c r="E52">
+        <v>2.615</v>
+      </c>
+      <c r="F52">
+        <v>2.61</v>
+      </c>
+      <c r="G52">
+        <v>135</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>31</v>
+      </c>
+      <c r="K52" t="s">
+        <v>39</v>
+      </c>
+      <c r="L52" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
+        <v>45679</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>65.96333333333332</v>
+      </c>
+      <c r="E53">
+        <v>2.61</v>
+      </c>
+      <c r="F53">
+        <v>2.583333333333333</v>
+      </c>
+      <c r="G53">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45680</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54">
+        <v>65.32666666666667</v>
+      </c>
+      <c r="E54">
+        <v>2.626666666666666</v>
+      </c>
+      <c r="F54">
+        <v>2.62</v>
+      </c>
+      <c r="G54">
+        <v>133.3333333333333</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>24</v>
+      </c>
+      <c r="K54" t="s">
+        <v>35</v>
+      </c>
+      <c r="L54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
+        <v>45680</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>64.66333333333334</v>
+      </c>
+      <c r="E55">
+        <v>2.62</v>
+      </c>
+      <c r="F55">
+        <v>2.616666666666667</v>
+      </c>
+      <c r="G55">
+        <v>133.3333333333333</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" t="s">
+        <v>35</v>
+      </c>
+      <c r="L55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45680</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>65.95333333333333</v>
+      </c>
+      <c r="E56">
+        <v>2.626666666666667</v>
+      </c>
+      <c r="F56">
+        <v>2.596666666666667</v>
+      </c>
+      <c r="G56">
+        <v>133.3333333333333</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>31</v>
+      </c>
+      <c r="K56" t="s">
+        <v>33</v>
+      </c>
+      <c r="L56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45681</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>65.96666666666665</v>
+      </c>
+      <c r="E57">
+        <v>2.626666666666667</v>
+      </c>
+      <c r="F57">
+        <v>2.626666666666667</v>
+      </c>
+      <c r="G57">
+        <v>130</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" t="s">
+        <v>37</v>
+      </c>
+      <c r="L57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45681</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>65.98</v>
+      </c>
+      <c r="E58">
+        <v>2.6</v>
+      </c>
+      <c r="F58">
+        <v>2.633333333333333</v>
+      </c>
+      <c r="G58">
+        <v>140</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
         <v>20</v>
       </c>
-      <c r="K7" t="s">
+      <c r="J58" t="s">
+        <v>31</v>
+      </c>
+      <c r="K58" t="s">
+        <v>34</v>
+      </c>
+      <c r="L58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45681</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>64.4525</v>
+      </c>
+      <c r="E59">
+        <v>2.6025</v>
+      </c>
+      <c r="F59">
+        <v>2.59</v>
+      </c>
+      <c r="G59">
+        <v>135</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s">
+        <v>26</v>
+      </c>
+      <c r="K59" t="s">
+        <v>36</v>
+      </c>
+      <c r="L59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45682</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60">
+        <v>66.02</v>
+      </c>
+      <c r="E60">
+        <v>2.63</v>
+      </c>
+      <c r="F60">
+        <v>2.62</v>
+      </c>
+      <c r="G60">
+        <v>130</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>31</v>
+      </c>
+      <c r="K60" t="s">
+        <v>35</v>
+      </c>
+      <c r="L60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45682</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="E61">
+        <v>2.6275</v>
+      </c>
+      <c r="F61">
+        <v>2.62</v>
+      </c>
+      <c r="G61">
+        <v>132.5</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" t="s">
+        <v>35</v>
+      </c>
+      <c r="L61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45682</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>66</v>
+      </c>
+      <c r="E62">
+        <v>2.65</v>
+      </c>
+      <c r="F62">
+        <v>2.593333333333333</v>
+      </c>
+      <c r="G62">
+        <v>133.3333333333333</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" t="s">
+        <v>31</v>
+      </c>
+      <c r="K62" t="s">
+        <v>36</v>
+      </c>
+      <c r="L62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45684</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63">
+        <v>65.30250000000001</v>
+      </c>
+      <c r="E63">
+        <v>2.61</v>
+      </c>
+      <c r="F63">
+        <v>2.5925</v>
+      </c>
+      <c r="G63">
+        <v>132.5</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" t="s">
+        <v>24</v>
+      </c>
+      <c r="K63" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45684</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>64.83</v>
+      </c>
+      <c r="E64">
+        <v>2.625</v>
+      </c>
+      <c r="F64">
+        <v>2.57</v>
+      </c>
+      <c r="G64">
+        <v>135</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>28</v>
+      </c>
+      <c r="K64" t="s">
+        <v>40</v>
+      </c>
+      <c r="L64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45685</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65">
+        <v>65.67666666666666</v>
+      </c>
+      <c r="E65">
+        <v>2.613333333333333</v>
+      </c>
+      <c r="F65">
+        <v>2.62</v>
+      </c>
+      <c r="G65">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65" t="s">
+        <v>30</v>
+      </c>
+      <c r="K65" t="s">
+        <v>35</v>
+      </c>
+      <c r="L65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
+        <v>45685</v>
+      </c>
+      <c r="C66" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66">
+        <v>65.59400000000001</v>
+      </c>
+      <c r="E66">
+        <v>2.612</v>
+      </c>
+      <c r="F66">
+        <v>2.602</v>
+      </c>
+      <c r="G66">
+        <v>140</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" t="s">
+        <v>33</v>
+      </c>
+      <c r="L66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
+        <v>45685</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="E67">
+        <v>2.63</v>
+      </c>
+      <c r="F67">
+        <v>2.59</v>
+      </c>
+      <c r="G67">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>30</v>
+      </c>
+      <c r="K67" t="s">
+        <v>36</v>
+      </c>
+      <c r="L67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45686</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68">
+        <v>64.77500000000001</v>
+      </c>
+      <c r="E68">
+        <v>2.615</v>
+      </c>
+      <c r="F68">
+        <v>2.61</v>
+      </c>
+      <c r="G68">
+        <v>135</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68" t="s">
+        <v>39</v>
+      </c>
+      <c r="L68" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45686</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <v>65.55</v>
+      </c>
+      <c r="E69">
+        <v>2.61</v>
+      </c>
+      <c r="F69">
+        <v>2.6</v>
+      </c>
+      <c r="G69">
+        <v>140</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" t="s">
+        <v>30</v>
+      </c>
+      <c r="K69" t="s">
+        <v>33</v>
+      </c>
+      <c r="L69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <v>45686</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>64.4425</v>
+      </c>
+      <c r="E70">
+        <v>2.6425</v>
+      </c>
+      <c r="F70">
+        <v>2.5825</v>
+      </c>
+      <c r="G70">
+        <v>135</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" t="s">
+        <v>26</v>
+      </c>
+      <c r="K70" t="s">
+        <v>38</v>
+      </c>
+      <c r="L70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <v>45687</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71">
+        <v>65.08333333333333</v>
+      </c>
+      <c r="E71">
+        <v>2.606666666666667</v>
+      </c>
+      <c r="F71">
+        <v>2.606666666666667</v>
+      </c>
+      <c r="G71">
+        <v>146.6666666666667</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>19</v>
+      </c>
+      <c r="J71" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" t="s">
+        <v>39</v>
+      </c>
+      <c r="L71" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <v>45687</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>65.50999999999999</v>
+      </c>
+      <c r="E72">
+        <v>2.605</v>
+      </c>
+      <c r="F72">
+        <v>2.57</v>
+      </c>
+      <c r="G72">
+        <v>140</v>
+      </c>
+      <c r="H72">
+        <v>0.02237637055269635</v>
+      </c>
+      <c r="I72" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s">
+        <v>24</v>
+      </c>
+      <c r="K72" t="s">
+        <v>40</v>
+      </c>
+      <c r="L72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <v>45687</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>64.64</v>
+      </c>
+      <c r="E73">
+        <v>2.616666666666667</v>
+      </c>
+      <c r="F73">
+        <v>2.606666666666667</v>
+      </c>
+      <c r="G73">
+        <v>146.6666666666667</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
         <v>25</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K73" t="s">
+        <v>39</v>
+      </c>
+      <c r="L73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2">
+        <v>45688</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74">
+        <v>65.5</v>
+      </c>
+      <c r="E74">
+        <v>2.625</v>
+      </c>
+      <c r="F74">
+        <v>2.6</v>
+      </c>
+      <c r="G74">
+        <v>140</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>16</v>
+      </c>
+      <c r="J74" t="s">
+        <v>24</v>
+      </c>
+      <c r="K74" t="s">
+        <v>33</v>
+      </c>
+      <c r="L74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1">
+        <v>0</v>
+      </c>
+      <c r="B75" s="2">
+        <v>45691</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75">
+        <v>65.48</v>
+      </c>
+      <c r="E75">
+        <v>2.6</v>
+      </c>
+      <c r="F75">
+        <v>2.6</v>
+      </c>
+      <c r="G75">
+        <v>140</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" t="s">
+        <v>24</v>
+      </c>
+      <c r="K75" t="s">
+        <v>33</v>
+      </c>
+      <c r="L75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1">
+        <v>1</v>
+      </c>
+      <c r="B76" s="2">
+        <v>45691</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>65.48</v>
+      </c>
+      <c r="E76">
+        <v>2.6</v>
+      </c>
+      <c r="F76">
+        <v>2.603333333333333</v>
+      </c>
+      <c r="G76">
+        <v>140</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" t="s">
+        <v>24</v>
+      </c>
+      <c r="K76" t="s">
+        <v>33</v>
+      </c>
+      <c r="L76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1">
+        <v>2</v>
+      </c>
+      <c r="B77" s="2">
+        <v>45691</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77">
+        <v>65.35000000000001</v>
+      </c>
+      <c r="E77">
+        <v>2.613333333333333</v>
+      </c>
+      <c r="F77">
+        <v>2.633333333333333</v>
+      </c>
+      <c r="G77">
+        <v>140</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>21</v>
+      </c>
+      <c r="J77" t="s">
+        <v>24</v>
+      </c>
+      <c r="K77" t="s">
+        <v>34</v>
+      </c>
+      <c r="L77" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1">
+        <v>3</v>
+      </c>
+      <c r="B78" s="2">
+        <v>45692</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78">
+        <v>65.45</v>
+      </c>
+      <c r="E78">
+        <v>2.62</v>
+      </c>
+      <c r="F78">
+        <v>2.64</v>
+      </c>
+      <c r="G78">
+        <v>140</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" t="s">
+        <v>24</v>
+      </c>
+      <c r="K78" t="s">
+        <v>34</v>
+      </c>
+      <c r="L78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1">
+        <v>4</v>
+      </c>
+      <c r="B79" s="2">
+        <v>45692</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79">
+        <v>65.5025</v>
+      </c>
+      <c r="E79">
+        <v>2.6225</v>
+      </c>
+      <c r="F79">
+        <v>2.6025</v>
+      </c>
+      <c r="G79">
+        <v>145</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" t="s">
+        <v>24</v>
+      </c>
+      <c r="K79" t="s">
+        <v>33</v>
+      </c>
+      <c r="L79" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1">
+        <v>5</v>
+      </c>
+      <c r="B80" s="2">
+        <v>45692</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>65.51000000000001</v>
+      </c>
+      <c r="E80">
+        <v>2.63</v>
+      </c>
+      <c r="F80">
+        <v>2.63</v>
+      </c>
+      <c r="G80">
+        <v>135</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>24</v>
+      </c>
+      <c r="K80" t="s">
+        <v>37</v>
+      </c>
+      <c r="L80" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1">
+        <v>6</v>
+      </c>
+      <c r="B81" s="2">
+        <v>45693</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81">
+        <v>65.53</v>
+      </c>
+      <c r="E81">
+        <v>2.63</v>
+      </c>
+      <c r="F81">
+        <v>2.64</v>
+      </c>
+      <c r="G81">
+        <v>140</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>30</v>
+      </c>
+      <c r="K81" t="s">
+        <v>34</v>
+      </c>
+      <c r="L81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1">
+        <v>7</v>
+      </c>
+      <c r="B82" s="2">
+        <v>45693</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>65.535</v>
+      </c>
+      <c r="E82">
+        <v>2.625</v>
+      </c>
+      <c r="F82">
+        <v>2.5725</v>
+      </c>
+      <c r="G82">
+        <v>140</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>30</v>
+      </c>
+      <c r="K82" t="s">
+        <v>40</v>
+      </c>
+      <c r="L82" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="1">
+        <v>8</v>
+      </c>
+      <c r="B83" s="2">
+        <v>45693</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>65.056</v>
+      </c>
+      <c r="E83">
+        <v>2.608</v>
+      </c>
+      <c r="F83">
+        <v>2.636</v>
+      </c>
+      <c r="G83">
+        <v>142</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83" t="s">
         <v>29</v>
+      </c>
+      <c r="K83" t="s">
+        <v>34</v>
+      </c>
+      <c r="L83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="1">
+        <v>9</v>
+      </c>
+      <c r="B84" s="2">
+        <v>45694</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84">
+        <v>65.515</v>
+      </c>
+      <c r="E84">
+        <v>2.605</v>
+      </c>
+      <c r="F84">
+        <v>2.61</v>
+      </c>
+      <c r="G84">
+        <v>140</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" t="s">
+        <v>24</v>
+      </c>
+      <c r="K84" t="s">
+        <v>39</v>
+      </c>
+      <c r="L84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="1">
+        <v>10</v>
+      </c>
+      <c r="B85" s="2">
+        <v>45694</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85">
+        <v>65.245</v>
+      </c>
+      <c r="E85">
+        <v>2.6025</v>
+      </c>
+      <c r="F85">
+        <v>2.6</v>
+      </c>
+      <c r="G85">
+        <v>140</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" t="s">
+        <v>29</v>
+      </c>
+      <c r="K85" t="s">
+        <v>33</v>
+      </c>
+      <c r="L85" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="1">
+        <v>11</v>
+      </c>
+      <c r="B86" s="2">
+        <v>45694</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <v>64.75333333333333</v>
+      </c>
+      <c r="E86">
+        <v>2.593333333333333</v>
+      </c>
+      <c r="F86">
+        <v>2.623333333333334</v>
+      </c>
+      <c r="G86">
+        <v>140</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>23</v>
+      </c>
+      <c r="J86" t="s">
+        <v>25</v>
+      </c>
+      <c r="K86" t="s">
+        <v>37</v>
+      </c>
+      <c r="L86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="1">
+        <v>12</v>
+      </c>
+      <c r="B87" s="2">
+        <v>45695</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87">
+        <v>65.515</v>
+      </c>
+      <c r="E87">
+        <v>2.61</v>
+      </c>
+      <c r="F87">
+        <v>2.61</v>
+      </c>
+      <c r="G87">
+        <v>135</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>19</v>
+      </c>
+      <c r="J87" t="s">
+        <v>24</v>
+      </c>
+      <c r="K87" t="s">
+        <v>39</v>
+      </c>
+      <c r="L87" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="1">
+        <v>13</v>
+      </c>
+      <c r="B88" s="2">
+        <v>45695</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>64.845</v>
+      </c>
+      <c r="E88">
+        <v>2.615</v>
+      </c>
+      <c r="F88">
+        <v>2.57</v>
+      </c>
+      <c r="G88">
+        <v>130</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>21</v>
+      </c>
+      <c r="J88" t="s">
+        <v>28</v>
+      </c>
+      <c r="K88" t="s">
+        <v>40</v>
+      </c>
+      <c r="L88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" s="1">
+        <v>14</v>
+      </c>
+      <c r="B89" s="2">
+        <v>45695</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89">
+        <v>64.16</v>
+      </c>
+      <c r="E89">
+        <v>2.61</v>
+      </c>
+      <c r="F89">
+        <v>2.636666666666667</v>
+      </c>
+      <c r="G89">
+        <v>138</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" t="s">
+        <v>34</v>
+      </c>
+      <c r="L89" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="1">
+        <v>15</v>
+      </c>
+      <c r="B90" s="2">
+        <v>45696</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90">
+        <v>64.88</v>
+      </c>
+      <c r="E90">
+        <v>2.62</v>
+      </c>
+      <c r="F90">
+        <v>2.61</v>
+      </c>
+      <c r="G90">
+        <v>132.5</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" t="s">
+        <v>28</v>
+      </c>
+      <c r="K90" t="s">
+        <v>39</v>
+      </c>
+      <c r="L90" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="1">
+        <v>16</v>
+      </c>
+      <c r="B91" s="2">
+        <v>45696</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91">
+        <v>64.77</v>
+      </c>
+      <c r="E91">
+        <v>2.614</v>
+      </c>
+      <c r="F91">
+        <v>2.596</v>
+      </c>
+      <c r="G91">
+        <v>130</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>21</v>
+      </c>
+      <c r="J91" t="s">
+        <v>25</v>
+      </c>
+      <c r="K91" t="s">
+        <v>33</v>
+      </c>
+      <c r="L91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="1">
+        <v>17</v>
+      </c>
+      <c r="B92" s="2">
+        <v>45696</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92">
+        <v>65.58999999999999</v>
+      </c>
+      <c r="E92">
+        <v>2.613333333333333</v>
+      </c>
+      <c r="F92">
+        <v>2.64</v>
+      </c>
+      <c r="G92">
+        <v>140</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>30</v>
+      </c>
+      <c r="K92" t="s">
+        <v>34</v>
+      </c>
+      <c r="L92" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="1">
+        <v>18</v>
+      </c>
+      <c r="B93" s="2">
+        <v>45698</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="E93">
+        <v>2.6</v>
+      </c>
+      <c r="F93">
+        <v>2.64</v>
+      </c>
+      <c r="G93">
+        <v>130</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>20</v>
+      </c>
+      <c r="J93" t="s">
+        <v>27</v>
+      </c>
+      <c r="K93" t="s">
+        <v>34</v>
+      </c>
+      <c r="L93" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="1">
+        <v>19</v>
+      </c>
+      <c r="B94" s="2">
+        <v>45698</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <v>64.61666666666666</v>
+      </c>
+      <c r="E94">
+        <v>2.616666666666667</v>
+      </c>
+      <c r="F94">
+        <v>2.593333333333333</v>
+      </c>
+      <c r="G94">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>21</v>
+      </c>
+      <c r="J94" t="s">
+        <v>25</v>
+      </c>
+      <c r="K94" t="s">
+        <v>36</v>
+      </c>
+      <c r="L94" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="1">
+        <v>20</v>
+      </c>
+      <c r="B95" s="2">
+        <v>45699</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95">
+        <v>65.5675</v>
+      </c>
+      <c r="E95">
+        <v>2.6125</v>
+      </c>
+      <c r="F95">
+        <v>2.605</v>
+      </c>
+      <c r="G95">
+        <v>137.5</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95" t="s">
+        <v>30</v>
+      </c>
+      <c r="K95" t="s">
+        <v>39</v>
+      </c>
+      <c r="L95" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="1">
+        <v>21</v>
+      </c>
+      <c r="B96" s="2">
+        <v>45699</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96">
+        <v>65.03333333333335</v>
+      </c>
+      <c r="E96">
+        <v>2.606666666666667</v>
+      </c>
+      <c r="F96">
+        <v>2.616666666666667</v>
+      </c>
+      <c r="G96">
+        <v>140</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>19</v>
+      </c>
+      <c r="J96" t="s">
+        <v>29</v>
+      </c>
+      <c r="K96" t="s">
+        <v>35</v>
+      </c>
+      <c r="L96" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="1">
+        <v>22</v>
+      </c>
+      <c r="B97" s="2">
+        <v>45699</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>65.49000000000001</v>
+      </c>
+      <c r="E97">
+        <v>2.603333333333333</v>
+      </c>
+      <c r="F97">
+        <v>2.596666666666667</v>
+      </c>
+      <c r="G97">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>20</v>
+      </c>
+      <c r="J97" t="s">
+        <v>24</v>
+      </c>
+      <c r="K97" t="s">
+        <v>33</v>
+      </c>
+      <c r="L97" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="1">
+        <v>23</v>
+      </c>
+      <c r="B98" s="2">
+        <v>45700</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98">
+        <v>65.09</v>
+      </c>
+      <c r="E98">
+        <v>2.63</v>
+      </c>
+      <c r="F98">
+        <v>2.62</v>
+      </c>
+      <c r="G98">
+        <v>140</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>29</v>
+      </c>
+      <c r="K98" t="s">
+        <v>35</v>
+      </c>
+      <c r="L98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="1">
+        <v>24</v>
+      </c>
+      <c r="B99" s="2">
+        <v>45700</v>
+      </c>
+      <c r="C99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99">
+        <v>65.61333333333333</v>
+      </c>
+      <c r="E99">
+        <v>2.633333333333333</v>
+      </c>
+      <c r="F99">
+        <v>2.616666666666667</v>
+      </c>
+      <c r="G99">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" t="s">
+        <v>30</v>
+      </c>
+      <c r="K99" t="s">
+        <v>35</v>
+      </c>
+      <c r="L99" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="1">
+        <v>25</v>
+      </c>
+      <c r="B100" s="2">
+        <v>45700</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100">
+        <v>65.2475</v>
+      </c>
+      <c r="E100">
+        <v>2.6225</v>
+      </c>
+      <c r="F100">
+        <v>2.6125</v>
+      </c>
+      <c r="G100">
+        <v>137.5</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" t="s">
+        <v>29</v>
+      </c>
+      <c r="K100" t="s">
+        <v>39</v>
+      </c>
+      <c r="L100" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="1">
+        <v>26</v>
+      </c>
+      <c r="B101" s="2">
+        <v>45701</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101">
+        <v>64.08</v>
+      </c>
+      <c r="E101">
+        <v>2.64</v>
+      </c>
+      <c r="F101">
+        <v>2.62</v>
+      </c>
+      <c r="G101">
+        <v>140</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" t="s">
+        <v>27</v>
+      </c>
+      <c r="K101" t="s">
+        <v>35</v>
+      </c>
+      <c r="L101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="1">
+        <v>27</v>
+      </c>
+      <c r="B102" s="2">
+        <v>45701</v>
+      </c>
+      <c r="C102" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="E102">
+        <v>2.63</v>
+      </c>
+      <c r="F102">
+        <v>2.586666666666666</v>
+      </c>
+      <c r="G102">
+        <v>140</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>30</v>
+      </c>
+      <c r="K102" t="s">
+        <v>36</v>
+      </c>
+      <c r="L102" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" s="1">
+        <v>28</v>
+      </c>
+      <c r="B103" s="2">
+        <v>45701</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103">
+        <v>65.06333333333333</v>
+      </c>
+      <c r="E103">
+        <v>2.603333333333333</v>
+      </c>
+      <c r="F103">
+        <v>2.61</v>
+      </c>
+      <c r="G103">
+        <v>140</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>20</v>
+      </c>
+      <c r="J103" t="s">
+        <v>29</v>
+      </c>
+      <c r="K103" t="s">
+        <v>39</v>
+      </c>
+      <c r="L103" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="1">
+        <v>29</v>
+      </c>
+      <c r="B104" s="2">
+        <v>45702</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104">
+        <v>64.795</v>
+      </c>
+      <c r="E104">
+        <v>2.615</v>
+      </c>
+      <c r="F104">
+        <v>2.595</v>
+      </c>
+      <c r="G104">
+        <v>140</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104" t="s">
+        <v>21</v>
+      </c>
+      <c r="J104" t="s">
+        <v>28</v>
+      </c>
+      <c r="K104" t="s">
+        <v>33</v>
+      </c>
+      <c r="L104" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" s="1">
+        <v>30</v>
+      </c>
+      <c r="B105" s="2">
+        <v>45702</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105">
+        <v>65.56</v>
+      </c>
+      <c r="E105">
+        <v>2.62</v>
+      </c>
+      <c r="F105">
+        <v>2.61</v>
+      </c>
+      <c r="G105">
+        <v>140</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" t="s">
+        <v>30</v>
+      </c>
+      <c r="K105" t="s">
+        <v>39</v>
+      </c>
+      <c r="L105" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" s="1">
+        <v>31</v>
+      </c>
+      <c r="B106" s="2">
+        <v>45702</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106">
+        <v>65.55</v>
+      </c>
+      <c r="E106">
+        <v>2.6</v>
+      </c>
+      <c r="F106">
+        <v>2.62</v>
+      </c>
+      <c r="G106">
+        <v>140</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
+        <v>20</v>
+      </c>
+      <c r="J106" t="s">
+        <v>30</v>
+      </c>
+      <c r="K106" t="s">
+        <v>35</v>
+      </c>
+      <c r="L106" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" s="1">
+        <v>32</v>
+      </c>
+      <c r="B107" s="2">
+        <v>45703</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107">
+        <v>67.03749999999999</v>
+      </c>
+      <c r="E107">
+        <v>2.61</v>
+      </c>
+      <c r="F107">
+        <v>2.6</v>
+      </c>
+      <c r="G107">
+        <v>140</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>19</v>
+      </c>
+      <c r="J107" t="s">
+        <v>32</v>
+      </c>
+      <c r="K107" t="s">
+        <v>33</v>
+      </c>
+      <c r="L107" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="1">
+        <v>33</v>
+      </c>
+      <c r="B108" s="2">
+        <v>45703</v>
+      </c>
+      <c r="C108" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108">
+        <v>65.44</v>
+      </c>
+      <c r="E108">
+        <v>2.61</v>
+      </c>
+      <c r="F108">
+        <v>2.608</v>
+      </c>
+      <c r="G108">
+        <v>142</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>19</v>
+      </c>
+      <c r="J108" t="s">
+        <v>24</v>
+      </c>
+      <c r="K108" t="s">
+        <v>39</v>
+      </c>
+      <c r="L108" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="1">
+        <v>34</v>
+      </c>
+      <c r="B109" s="2">
+        <v>45703</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109">
+        <v>65.45</v>
+      </c>
+      <c r="E109">
+        <v>2.6</v>
+      </c>
+      <c r="F109">
+        <v>2.61</v>
+      </c>
+      <c r="G109">
+        <v>140</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109" t="s">
+        <v>20</v>
+      </c>
+      <c r="J109" t="s">
+        <v>24</v>
+      </c>
+      <c r="K109" t="s">
+        <v>39</v>
+      </c>
+      <c r="L109" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="1">
+        <v>35</v>
+      </c>
+      <c r="B110" s="2">
+        <v>45704</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110">
+        <v>65.495</v>
+      </c>
+      <c r="E110">
+        <v>2.635</v>
+      </c>
+      <c r="F110">
+        <v>2.605</v>
+      </c>
+      <c r="G110">
+        <v>135</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>18</v>
+      </c>
+      <c r="J110" t="s">
+        <v>24</v>
+      </c>
+      <c r="K110" t="s">
+        <v>39</v>
+      </c>
+      <c r="L110" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" s="1">
+        <v>36</v>
+      </c>
+      <c r="B111" s="2">
+        <v>45704</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111">
+        <v>65.50333333333333</v>
+      </c>
+      <c r="E111">
+        <v>2.64</v>
+      </c>
+      <c r="F111">
+        <v>2.606666666666667</v>
+      </c>
+      <c r="G111">
+        <v>140</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111" t="s">
+        <v>15</v>
+      </c>
+      <c r="J111" t="s">
+        <v>24</v>
+      </c>
+      <c r="K111" t="s">
+        <v>39</v>
+      </c>
+      <c r="L111" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" s="1">
+        <v>37</v>
+      </c>
+      <c r="B112" s="2">
+        <v>45704</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112">
+        <v>65.465</v>
+      </c>
+      <c r="E112">
+        <v>2.615</v>
+      </c>
+      <c r="F112">
+        <v>2.6</v>
+      </c>
+      <c r="G112">
+        <v>137.5</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
+        <v>21</v>
+      </c>
+      <c r="J112" t="s">
+        <v>24</v>
+      </c>
+      <c r="K112" t="s">
+        <v>33</v>
+      </c>
+      <c r="L112" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" s="1">
+        <v>38</v>
+      </c>
+      <c r="B113" s="2">
+        <v>45705</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113">
+        <v>65.45</v>
+      </c>
+      <c r="E113">
+        <v>2.6</v>
+      </c>
+      <c r="F113">
+        <v>2.62</v>
+      </c>
+      <c r="G113">
+        <v>140</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>20</v>
+      </c>
+      <c r="J113" t="s">
+        <v>24</v>
+      </c>
+      <c r="K113" t="s">
+        <v>35</v>
+      </c>
+      <c r="L113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" s="1">
+        <v>39</v>
+      </c>
+      <c r="B114" s="2">
+        <v>45705</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114">
+        <v>65.39250000000001</v>
+      </c>
+      <c r="E114">
+        <v>2.625</v>
+      </c>
+      <c r="F114">
+        <v>2.5525</v>
+      </c>
+      <c r="G114">
+        <v>135</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114" t="s">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>24</v>
+      </c>
+      <c r="K114" t="s">
+        <v>41</v>
+      </c>
+      <c r="L114" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" s="1">
+        <v>40</v>
+      </c>
+      <c r="B115" s="2">
+        <v>45705</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115">
+        <v>64.33</v>
+      </c>
+      <c r="E115">
+        <v>2.63</v>
+      </c>
+      <c r="F115">
+        <v>2.62</v>
+      </c>
+      <c r="G115">
+        <v>140</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115" t="s">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>26</v>
+      </c>
+      <c r="K115" t="s">
+        <v>35</v>
+      </c>
+      <c r="L115" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="1">
+        <v>41</v>
+      </c>
+      <c r="B116" s="2">
+        <v>45706</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116">
+        <v>64.83500000000001</v>
+      </c>
+      <c r="E116">
+        <v>2.625</v>
+      </c>
+      <c r="F116">
+        <v>2.575</v>
+      </c>
+      <c r="G116">
+        <v>133</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116" t="s">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>28</v>
+      </c>
+      <c r="K116" t="s">
+        <v>40</v>
+      </c>
+      <c r="L116" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="1">
+        <v>42</v>
+      </c>
+      <c r="B117" s="2">
+        <v>45706</v>
+      </c>
+      <c r="C117" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117">
+        <v>65.36</v>
+      </c>
+      <c r="E117">
+        <v>2.64</v>
+      </c>
+      <c r="F117">
+        <v>2.555</v>
+      </c>
+      <c r="G117">
+        <v>135</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117" t="s">
+        <v>15</v>
+      </c>
+      <c r="J117" t="s">
+        <v>24</v>
+      </c>
+      <c r="K117" t="s">
+        <v>41</v>
+      </c>
+      <c r="L117" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="1">
+        <v>43</v>
+      </c>
+      <c r="B118" s="2">
+        <v>45706</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118">
+        <v>64.3</v>
+      </c>
+      <c r="E118">
+        <v>2.6</v>
+      </c>
+      <c r="F118">
+        <v>2.58</v>
+      </c>
+      <c r="G118">
+        <v>130</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118" t="s">
+        <v>20</v>
+      </c>
+      <c r="J118" t="s">
+        <v>26</v>
+      </c>
+      <c r="K118" t="s">
+        <v>38</v>
+      </c>
+      <c r="L118" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="1">
+        <v>44</v>
+      </c>
+      <c r="B119" s="2">
+        <v>45707</v>
+      </c>
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119">
+        <v>64.6525</v>
+      </c>
+      <c r="E119">
+        <v>2.6275</v>
+      </c>
+      <c r="F119">
+        <v>2.5925</v>
+      </c>
+      <c r="G119">
+        <v>140</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119" t="s">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>25</v>
+      </c>
+      <c r="K119" t="s">
+        <v>36</v>
+      </c>
+      <c r="L119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="1">
+        <v>45</v>
+      </c>
+      <c r="B120" s="2">
+        <v>45707</v>
+      </c>
+      <c r="C120" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120">
+        <v>65.42</v>
+      </c>
+      <c r="E120">
+        <v>2.615</v>
+      </c>
+      <c r="F120">
+        <v>2.63</v>
+      </c>
+      <c r="G120">
+        <v>140</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120" t="s">
+        <v>21</v>
+      </c>
+      <c r="J120" t="s">
+        <v>24</v>
+      </c>
+      <c r="K120" t="s">
+        <v>37</v>
+      </c>
+      <c r="L120" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="1">
+        <v>46</v>
+      </c>
+      <c r="B121" s="2">
+        <v>45707</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121">
+        <v>65.42250000000001</v>
+      </c>
+      <c r="E121">
+        <v>2.6075</v>
+      </c>
+      <c r="F121">
+        <v>2.5825</v>
+      </c>
+      <c r="G121">
+        <v>137.5</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121" t="s">
+        <v>19</v>
+      </c>
+      <c r="J121" t="s">
+        <v>24</v>
+      </c>
+      <c r="K121" t="s">
+        <v>38</v>
+      </c>
+      <c r="L121" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="1">
+        <v>47</v>
+      </c>
+      <c r="B122" s="2">
+        <v>45708</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122">
+        <v>64.675</v>
+      </c>
+      <c r="E122">
+        <v>2.63</v>
+      </c>
+      <c r="F122">
+        <v>2.615</v>
+      </c>
+      <c r="G122">
+        <v>142.5</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122" t="s">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>25</v>
+      </c>
+      <c r="K122" t="s">
+        <v>35</v>
+      </c>
+      <c r="L122" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="1">
+        <v>48</v>
+      </c>
+      <c r="B123" s="2">
+        <v>45708</v>
+      </c>
+      <c r="C123" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123">
+        <v>65.38249999999999</v>
+      </c>
+      <c r="E123">
+        <v>2.6025</v>
+      </c>
+      <c r="F123">
+        <v>2.6275</v>
+      </c>
+      <c r="G123">
+        <v>142.5</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123" t="s">
+        <v>20</v>
+      </c>
+      <c r="J123" t="s">
+        <v>24</v>
+      </c>
+      <c r="K123" t="s">
+        <v>37</v>
+      </c>
+      <c r="L123" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="1">
+        <v>49</v>
+      </c>
+      <c r="B124" s="2">
+        <v>45708</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124">
+        <v>65.39</v>
+      </c>
+      <c r="E124">
+        <v>2.61</v>
+      </c>
+      <c r="F124">
+        <v>2.61</v>
+      </c>
+      <c r="G124">
+        <v>140</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124" t="s">
+        <v>19</v>
+      </c>
+      <c r="J124" t="s">
+        <v>24</v>
+      </c>
+      <c r="K124" t="s">
+        <v>39</v>
+      </c>
+      <c r="L124" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="1">
+        <v>50</v>
+      </c>
+      <c r="B125" s="2">
+        <v>45709</v>
+      </c>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125">
+        <v>65.32499999999999</v>
+      </c>
+      <c r="E125">
+        <v>2.61</v>
+      </c>
+      <c r="F125">
+        <v>2.56</v>
+      </c>
+      <c r="G125">
+        <v>135</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125" t="s">
+        <v>19</v>
+      </c>
+      <c r="J125" t="s">
+        <v>24</v>
+      </c>
+      <c r="K125" t="s">
+        <v>42</v>
+      </c>
+      <c r="L125" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" s="1">
+        <v>51</v>
+      </c>
+      <c r="B126" s="2">
+        <v>45709</v>
+      </c>
+      <c r="C126" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126">
+        <v>65.146</v>
+      </c>
+      <c r="E126">
+        <v>2.612</v>
+      </c>
+      <c r="F126">
+        <v>2.618</v>
+      </c>
+      <c r="G126">
+        <v>134</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126" t="s">
+        <v>21</v>
+      </c>
+      <c r="J126" t="s">
+        <v>29</v>
+      </c>
+      <c r="K126" t="s">
+        <v>35</v>
+      </c>
+      <c r="L126" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" s="1">
+        <v>52</v>
+      </c>
+      <c r="B127" s="2">
+        <v>45709</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127">
+        <v>64.47</v>
+      </c>
+      <c r="E127">
+        <v>2.6</v>
+      </c>
+      <c r="F127">
+        <v>2.61</v>
+      </c>
+      <c r="G127">
+        <v>140</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127" t="s">
+        <v>20</v>
+      </c>
+      <c r="J127" t="s">
+        <v>26</v>
+      </c>
+      <c r="K127" t="s">
+        <v>39</v>
+      </c>
+      <c r="L127" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" s="1">
+        <v>53</v>
+      </c>
+      <c r="B128" s="2">
+        <v>45710</v>
+      </c>
+      <c r="C128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128">
+        <v>65.36</v>
+      </c>
+      <c r="E128">
+        <v>2.63</v>
+      </c>
+      <c r="F128">
+        <v>2.58</v>
+      </c>
+      <c r="G128">
+        <v>140</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128" t="s">
+        <v>16</v>
+      </c>
+      <c r="J128" t="s">
+        <v>24</v>
+      </c>
+      <c r="K128" t="s">
+        <v>38</v>
+      </c>
+      <c r="L128" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" s="1">
+        <v>54</v>
+      </c>
+      <c r="B129" s="2">
+        <v>45710</v>
+      </c>
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129">
+        <v>64.7075</v>
+      </c>
+      <c r="E129">
+        <v>2.6125</v>
+      </c>
+      <c r="F129">
+        <v>2.635</v>
+      </c>
+      <c r="G129">
+        <v>140</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129" t="s">
+        <v>21</v>
+      </c>
+      <c r="J129" t="s">
+        <v>25</v>
+      </c>
+      <c r="K129" t="s">
+        <v>34</v>
+      </c>
+      <c r="L129" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" s="1">
+        <v>55</v>
+      </c>
+      <c r="B130" s="2">
+        <v>45710</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130">
+        <v>65.34999999999999</v>
+      </c>
+      <c r="E130">
+        <v>2.6</v>
+      </c>
+      <c r="F130">
+        <v>2.57</v>
+      </c>
+      <c r="G130">
+        <v>140</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130" t="s">
+        <v>20</v>
+      </c>
+      <c r="J130" t="s">
+        <v>24</v>
+      </c>
+      <c r="K130" t="s">
+        <v>40</v>
+      </c>
+      <c r="L130" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" s="1">
+        <v>56</v>
+      </c>
+      <c r="B131" s="2">
+        <v>45711</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131">
+        <v>65.33499999999999</v>
+      </c>
+      <c r="E131">
+        <v>2.61</v>
+      </c>
+      <c r="F131">
+        <v>2.59</v>
+      </c>
+      <c r="G131">
+        <v>130</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131" t="s">
+        <v>19</v>
+      </c>
+      <c r="J131" t="s">
+        <v>24</v>
+      </c>
+      <c r="K131" t="s">
+        <v>36</v>
+      </c>
+      <c r="L131" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" s="1">
+        <v>57</v>
+      </c>
+      <c r="B132" s="2">
+        <v>45712</v>
+      </c>
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132">
+        <v>64.91499999999999</v>
+      </c>
+      <c r="E132">
+        <v>2.615</v>
+      </c>
+      <c r="F132">
+        <v>2.59</v>
+      </c>
+      <c r="G132">
+        <v>140</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132" t="s">
+        <v>21</v>
+      </c>
+      <c r="J132" t="s">
+        <v>28</v>
+      </c>
+      <c r="K132" t="s">
+        <v>36</v>
+      </c>
+      <c r="L132" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" s="1">
+        <v>58</v>
+      </c>
+      <c r="B133" s="2">
+        <v>45712</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133">
+        <v>65.31333333333333</v>
+      </c>
+      <c r="E133">
+        <v>2.606666666666667</v>
+      </c>
+      <c r="F133">
+        <v>2.606666666666667</v>
+      </c>
+      <c r="G133">
+        <v>140</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133" t="s">
+        <v>19</v>
+      </c>
+      <c r="J133" t="s">
+        <v>24</v>
+      </c>
+      <c r="K133" t="s">
+        <v>39</v>
+      </c>
+      <c r="L133" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" s="1">
+        <v>59</v>
+      </c>
+      <c r="B134" s="2">
+        <v>45712</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134">
+        <v>64.70999999999999</v>
+      </c>
+      <c r="E134">
+        <v>2.64</v>
+      </c>
+      <c r="F134">
+        <v>2.583333333333333</v>
+      </c>
+      <c r="G134">
+        <v>140</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K134" t="s">
+        <v>38</v>
+      </c>
+      <c r="L134" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" s="1">
+        <v>60</v>
+      </c>
+      <c r="B135" s="2">
+        <v>45713</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135">
+        <v>65.34999999999999</v>
+      </c>
+      <c r="E135">
+        <v>2.62</v>
+      </c>
+      <c r="F135">
+        <v>2.59</v>
+      </c>
+      <c r="G135">
+        <v>140</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135" t="s">
+        <v>24</v>
+      </c>
+      <c r="K135" t="s">
+        <v>36</v>
+      </c>
+      <c r="L135" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" s="1">
+        <v>61</v>
+      </c>
+      <c r="B136" s="2">
+        <v>45713</v>
+      </c>
+      <c r="C136" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136">
+        <v>65.28666666666668</v>
+      </c>
+      <c r="E136">
+        <v>2.63</v>
+      </c>
+      <c r="F136">
+        <v>2.59</v>
+      </c>
+      <c r="G136">
+        <v>140</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136" t="s">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>24</v>
+      </c>
+      <c r="K136" t="s">
+        <v>36</v>
+      </c>
+      <c r="L136" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" s="1">
+        <v>62</v>
+      </c>
+      <c r="B137" s="2">
+        <v>45713</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137">
+        <v>65.3</v>
+      </c>
+      <c r="E137">
+        <v>2.65</v>
+      </c>
+      <c r="F137">
+        <v>2.58</v>
+      </c>
+      <c r="G137">
+        <v>140</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137" t="s">
+        <v>14</v>
+      </c>
+      <c r="J137" t="s">
+        <v>24</v>
+      </c>
+      <c r="K137" t="s">
+        <v>38</v>
+      </c>
+      <c r="L137" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" s="1">
+        <v>63</v>
+      </c>
+      <c r="B138" s="2">
+        <v>45714</v>
+      </c>
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138">
+        <v>64.64333333333333</v>
+      </c>
+      <c r="E138">
+        <v>2.633333333333333</v>
+      </c>
+      <c r="F138">
+        <v>2.6</v>
+      </c>
+      <c r="G138">
+        <v>140</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138" t="s">
+        <v>18</v>
+      </c>
+      <c r="J138" t="s">
+        <v>25</v>
+      </c>
+      <c r="K138" t="s">
+        <v>33</v>
+      </c>
+      <c r="L138" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" s="1">
+        <v>64</v>
+      </c>
+      <c r="B139" s="2">
+        <v>45714</v>
+      </c>
+      <c r="C139" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139">
+        <v>64.67400000000001</v>
+      </c>
+      <c r="E139">
+        <v>2.6</v>
+      </c>
+      <c r="F139">
+        <v>2.62</v>
+      </c>
+      <c r="G139">
+        <v>140</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139" t="s">
+        <v>20</v>
+      </c>
+      <c r="J139" t="s">
+        <v>25</v>
+      </c>
+      <c r="K139" t="s">
+        <v>35</v>
+      </c>
+      <c r="L139" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" s="1">
+        <v>65</v>
+      </c>
+      <c r="B140" s="2">
+        <v>45714</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>64.79499999999999</v>
+      </c>
+      <c r="E140">
+        <v>2.635</v>
+      </c>
+      <c r="F140">
+        <v>2.61</v>
+      </c>
+      <c r="G140">
+        <v>140</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140" t="s">
+        <v>18</v>
+      </c>
+      <c r="J140" t="s">
+        <v>28</v>
+      </c>
+      <c r="K140" t="s">
+        <v>39</v>
+      </c>
+      <c r="L140" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" s="1">
+        <v>66</v>
+      </c>
+      <c r="B141" s="2">
+        <v>45715</v>
+      </c>
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141">
+        <v>65.23999999999999</v>
+      </c>
+      <c r="E141">
+        <v>2.62</v>
+      </c>
+      <c r="F141">
+        <v>2.58</v>
+      </c>
+      <c r="G141">
+        <v>140</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141" t="s">
+        <v>17</v>
+      </c>
+      <c r="J141" t="s">
+        <v>29</v>
+      </c>
+      <c r="K141" t="s">
+        <v>38</v>
+      </c>
+      <c r="L141" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" s="1">
+        <v>67</v>
+      </c>
+      <c r="B142" s="2">
+        <v>45715</v>
+      </c>
+      <c r="C142" t="s">
+        <v>11</v>
+      </c>
+      <c r="D142">
+        <v>65.11499999999999</v>
+      </c>
+      <c r="E142">
+        <v>2.61</v>
+      </c>
+      <c r="F142">
+        <v>2.595</v>
+      </c>
+      <c r="G142">
+        <v>140</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142" t="s">
+        <v>19</v>
+      </c>
+      <c r="J142" t="s">
+        <v>29</v>
+      </c>
+      <c r="K142" t="s">
+        <v>33</v>
+      </c>
+      <c r="L142" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" s="1">
+        <v>68</v>
+      </c>
+      <c r="B143" s="2">
+        <v>45715</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143">
+        <v>65.35333333333334</v>
+      </c>
+      <c r="E143">
+        <v>2.613333333333333</v>
+      </c>
+      <c r="F143">
+        <v>2.606666666666667</v>
+      </c>
+      <c r="G143">
+        <v>130</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143" t="s">
+        <v>21</v>
+      </c>
+      <c r="J143" t="s">
+        <v>24</v>
+      </c>
+      <c r="K143" t="s">
+        <v>39</v>
+      </c>
+      <c r="L143" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" s="1">
+        <v>69</v>
+      </c>
+      <c r="B144" s="2">
+        <v>45716</v>
+      </c>
+      <c r="C144" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144">
+        <v>65.38</v>
+      </c>
+      <c r="E144">
+        <v>2.625</v>
+      </c>
+      <c r="F144">
+        <v>2.585</v>
+      </c>
+      <c r="G144">
+        <v>135</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144" t="s">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>24</v>
+      </c>
+      <c r="K144" t="s">
+        <v>38</v>
+      </c>
+      <c r="L144" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="1">
+        <v>70</v>
+      </c>
+      <c r="B145" s="2">
+        <v>45716</v>
+      </c>
+      <c r="C145" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="E145">
+        <v>2.61</v>
+      </c>
+      <c r="F145">
+        <v>2.59</v>
+      </c>
+      <c r="G145">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145" t="s">
+        <v>19</v>
+      </c>
+      <c r="J145" t="s">
+        <v>24</v>
+      </c>
+      <c r="K145" t="s">
+        <v>36</v>
+      </c>
+      <c r="L145" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="1">
+        <v>71</v>
+      </c>
+      <c r="B146" s="2">
+        <v>45716</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146">
+        <v>64.45</v>
+      </c>
+      <c r="E146">
+        <v>2.65</v>
+      </c>
+      <c r="F146">
+        <v>2.593333333333333</v>
+      </c>
+      <c r="G146">
+        <v>136.6666666666667</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146" t="s">
+        <v>14</v>
+      </c>
+      <c r="J146" t="s">
+        <v>26</v>
+      </c>
+      <c r="K146" t="s">
+        <v>36</v>
+      </c>
+      <c r="L146" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
